--- a/Data/Predictions/SVM/SVM_Classifier_Predictions_Individual_Features_PCA.xlsx
+++ b/Data/Predictions/SVM/SVM_Classifier_Predictions_Individual_Features_PCA.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -15630,7 +15630,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16197,7 +16197,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17088,7 +17088,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18627,7 +18627,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19032,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19167,7 +19167,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -19194,7 +19194,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19302,7 +19302,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20058,7 +20058,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -20409,7 +20409,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20490,7 +20490,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -21624,7 +21624,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -21651,7 +21651,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22461,7 +22461,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22785,7 +22785,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -22893,7 +22893,7 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -23217,7 +23217,7 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23298,7 +23298,7 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23568,7 +23568,7 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23838,7 +23838,7 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24135,7 +24135,7 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24513,7 +24513,7 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24567,7 +24567,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24729,7 +24729,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24864,7 +24864,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25296,7 +25296,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25593,7 +25593,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -26241,7 +26241,7 @@
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -26403,7 +26403,7 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -26646,7 +26646,7 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -27105,7 +27105,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -27834,7 +27834,7 @@
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27888,7 +27888,7 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -28050,7 +28050,7 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28158,7 +28158,7 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28293,7 +28293,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28482,7 +28482,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28941,7 +28941,7 @@
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -29130,7 +29130,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -29886,7 +29886,7 @@
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -29913,7 +29913,7 @@
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30075,7 +30075,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30129,7 +30129,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -30183,7 +30183,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30318,7 +30318,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30453,7 +30453,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30615,7 +30615,7 @@
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30669,7 +30669,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30750,7 +30750,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30777,7 +30777,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30939,7 +30939,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -31101,7 +31101,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31263,7 +31263,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -31506,7 +31506,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31560,7 +31560,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -31776,7 +31776,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -32073,7 +32073,7 @@
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -32370,7 +32370,7 @@
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32586,7 +32586,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32667,7 +32667,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -32802,7 +32802,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -32829,7 +32829,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32856,7 +32856,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33099,7 +33099,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33207,7 +33207,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -33261,7 +33261,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33288,7 +33288,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33342,7 +33342,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33450,7 +33450,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33504,7 +33504,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -33531,7 +33531,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -33963,7 +33963,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34152,7 +34152,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34179,7 +34179,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34206,7 +34206,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34422,7 +34422,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34530,7 +34530,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34719,7 +34719,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34746,7 +34746,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34935,7 +34935,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34989,7 +34989,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -35070,7 +35070,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35097,7 +35097,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35286,7 +35286,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35313,7 +35313,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35610,7 +35610,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35718,7 +35718,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35799,7 +35799,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35826,7 +35826,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35853,7 +35853,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35934,7 +35934,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35961,7 +35961,7 @@
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -36042,7 +36042,7 @@
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36123,7 +36123,7 @@
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36285,7 +36285,7 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -36447,7 +36447,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36555,7 +36555,7 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36933,7 +36933,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -36987,7 +36987,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37041,7 +37041,7 @@
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37095,7 +37095,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37176,7 +37176,7 @@
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37392,7 +37392,7 @@
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -37473,7 +37473,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37527,7 +37527,7 @@
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -37608,7 +37608,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37770,7 +37770,7 @@
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37851,7 +37851,7 @@
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37959,7 +37959,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38013,7 +38013,7 @@
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38040,7 +38040,7 @@
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38283,7 +38283,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38337,7 +38337,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38391,7 +38391,7 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38418,7 +38418,7 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38553,7 +38553,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38634,7 +38634,7 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38742,7 +38742,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38769,7 +38769,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -38904,7 +38904,7 @@
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -38958,7 +38958,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -39093,7 +39093,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -39120,7 +39120,7 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39147,7 +39147,7 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39255,7 +39255,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39282,7 +39282,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39309,7 +39309,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39336,7 +39336,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39498,7 +39498,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39525,7 +39525,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39579,7 +39579,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39768,7 +39768,7 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -39849,7 +39849,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39957,7 +39957,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40065,7 +40065,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -40227,7 +40227,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -40254,7 +40254,7 @@
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40470,7 +40470,7 @@
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40551,7 +40551,7 @@
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40578,7 +40578,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
